--- a/data/input/employee_absence_data_30.xlsx
+++ b/data/input/employee_absence_data_30.xlsx
@@ -464,219 +464,219 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>73913</v>
+        <v>82323</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Calebe Gomes</t>
+          <t>Isabella Azevedo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45081</v>
+        <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>4742.27</v>
+        <v>7836.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>63796</v>
+        <v>31897</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Henry Nogueira</t>
+          <t>Erick Cunha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45086</v>
+        <v>45078</v>
       </c>
       <c r="G3" t="n">
-        <v>5187.47</v>
+        <v>6141.26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9566</v>
+        <v>68578</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Srta. Bianca Freitas</t>
+          <t>Ana Beatriz Moura</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45104</v>
+        <v>45099</v>
       </c>
       <c r="G4" t="n">
-        <v>2659.95</v>
+        <v>7105.51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>56468</v>
+        <v>96305</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Larissa Leão</t>
+          <t>Vitória Cirino</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45093</v>
+        <v>45103</v>
       </c>
       <c r="G5" t="n">
-        <v>3362.84</v>
+        <v>3524.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>87303</v>
+        <v>96533</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Giovanna Silveira</t>
+          <t>Vicente Melo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45090</v>
+        <v>45098</v>
       </c>
       <c r="G6" t="n">
-        <v>8687.629999999999</v>
+        <v>8722.059999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>43511</v>
+        <v>87004</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mariane Martins</t>
+          <t>Ana Vitória Cassiano</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45084</v>
+        <v>45105</v>
       </c>
       <c r="G7" t="n">
-        <v>6207.33</v>
+        <v>3816.99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>79283</v>
+        <v>29362</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mathias Rios</t>
+          <t>Antony Guerra</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45082</v>
+        <v>45086</v>
       </c>
       <c r="G8" t="n">
-        <v>8411.950000000001</v>
+        <v>4933.94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22256</v>
+        <v>77140</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Brenda Farias</t>
+          <t>Luísa Vargas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -685,51 +685,51 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45104</v>
+        <v>45087</v>
       </c>
       <c r="G9" t="n">
-        <v>10790.31</v>
+        <v>3941.87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>89811</v>
+        <v>46635</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pedro Miguel Cardoso</t>
+          <t>Maria Helena da Cunha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45101</v>
+        <v>45100</v>
       </c>
       <c r="G10" t="n">
-        <v>10622.63</v>
+        <v>6780.21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>55674</v>
+        <v>76859</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Isabelly Moura</t>
+          <t>Marina Rodrigues</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45079</v>
+        <v>45087</v>
       </c>
       <c r="G11" t="n">
-        <v>5091.05</v>
+        <v>9404.719999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_30.xlsx
+++ b/data/input/employee_absence_data_30.xlsx
@@ -464,16 +464,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>82323</v>
+        <v>1938</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Isabella Azevedo</t>
+          <t>Lavínia Souza</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -482,225 +482,225 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="G2" t="n">
-        <v>7836.48</v>
+        <v>9842.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>31897</v>
+        <v>48328</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Erick Cunha</t>
+          <t>Nathan Azevedo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="G3" t="n">
-        <v>6141.26</v>
+        <v>4280.77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68578</v>
+        <v>32590</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Beatriz Moura</t>
+          <t>Bryan Pimenta</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45099</v>
+        <v>45089</v>
       </c>
       <c r="G4" t="n">
-        <v>7105.51</v>
+        <v>7330.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96305</v>
+        <v>89196</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vitória Cirino</t>
+          <t>Maria Laura Garcia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45103</v>
+        <v>45094</v>
       </c>
       <c r="G5" t="n">
-        <v>3524.75</v>
+        <v>9084.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>96533</v>
+        <v>31566</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vicente Melo</t>
+          <t>Sr. João Vitor Guerra</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45098</v>
+        <v>45094</v>
       </c>
       <c r="G6" t="n">
-        <v>8722.059999999999</v>
+        <v>6626.38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>87004</v>
+        <v>56284</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ana Vitória Cassiano</t>
+          <t>Isaac Silveira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45105</v>
+        <v>45088</v>
       </c>
       <c r="G7" t="n">
-        <v>3816.99</v>
+        <v>6916.51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>29362</v>
+        <v>64342</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Antony Guerra</t>
+          <t>Larissa Azevedo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45086</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>4933.94</v>
+        <v>8233.57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>77140</v>
+        <v>63813</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Luísa Vargas</t>
+          <t>Cauê Cavalcanti</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45087</v>
+        <v>45105</v>
       </c>
       <c r="G9" t="n">
-        <v>3941.87</v>
+        <v>2086.99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>46635</v>
+        <v>70543</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maria Helena da Cunha</t>
+          <t>Emanuel Cunha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -714,42 +714,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45100</v>
+        <v>45095</v>
       </c>
       <c r="G10" t="n">
-        <v>6780.21</v>
+        <v>4666.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>76859</v>
+        <v>69266</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Marina Rodrigues</t>
+          <t>Cauã Pires</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Juridico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45087</v>
+        <v>45097</v>
       </c>
       <c r="G11" t="n">
-        <v>9404.719999999999</v>
+        <v>8982.17</v>
       </c>
     </row>
   </sheetData>
